--- a/biology/Botanique/Hypochaeris/Hypochaeris.xlsx
+++ b/biology/Botanique/Hypochaeris/Hypochaeris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porcelle
 Hypochaeris, les Porcelles, est un genre de plante à fleurs de la famille des Asteraceae.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient du grec ὑπό (sous, en dessous) et χοῖρος (petit cochon). Le nom devrait donc être orthographié Hypochoeris.
 </t>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Selon NCBI  (14 févr. 2012)[1] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 févr. 2012) :
 Hypochaeris acaulis
 Hypochaeris achyrophorus
 Hypochaeris angustifolia
@@ -591,8 +610,43 @@
 Hypochaeris tenuifolia
 Hypochaeris thrincioides
 Hypochaeris uniflora
-Synonymes
-Achyrophorus Adans. in Fam. Pl. 2: 112, 512 (1763), nom. superfl.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypochaeris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypochaeris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Achyrophorus Adans. in Fam. Pl. 2: 112, 512 (1763), nom. superfl.
 Porcellites Cass. in G.-F.Cuvier, Dict. Sci. Nat., ed. 2. 25: 64 (1822)
 Agenora D.Don in Edinburgh New Philos. J. 6: 310 (1828-1829 publ. 1829)
 Amblachaenium Turcz. ex DC. in Prodr. 7: 94 (1838)
